--- a/PCS_Field_Guide_Templates_v3.1.xlsx
+++ b/PCS_Field_Guide_Templates_v3.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IBM Cool Solutioning Tool\UserGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24448C9B-A8F3-40D7-A39A-5BD95464F044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0856849F-AAA3-4F04-85C0-E561E826CB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_ReadMe" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,6 @@
     <sheet name="04_VPC_Intake" sheetId="5" r:id="rId5"/>
     <sheet name="05_Satellite_ROKS_Intake" sheetId="6" r:id="rId6"/>
     <sheet name="EX_VMware_SingleSite" sheetId="7" r:id="rId7"/>
-    <sheet name="EX_VMware_TwoRegion" sheetId="8" r:id="rId8"/>
-    <sheet name="EX_PowerVS_DL_NoGW" sheetId="9" r:id="rId9"/>
-    <sheet name="EX_PowerVS_DL_CustomerGW" sheetId="10" r:id="rId10"/>
-    <sheet name="EX_PowerVS_Site2Site_VPN_VPC" sheetId="11" r:id="rId11"/>
-    <sheet name="EX_PowerVS_ClientVPN_VPC" sheetId="12" r:id="rId12"/>
-    <sheet name="EX_PowerVS_VPN_ClassicGW" sheetId="13" r:id="rId13"/>
-    <sheet name="EX_PowerVS_Megaport" sheetId="14" r:id="rId14"/>
-    <sheet name="EX_PowerVS_MR_DL" sheetId="15" r:id="rId15"/>
-    <sheet name="EX_PowerVS_MR_DL_CGW" sheetId="16" r:id="rId16"/>
-    <sheet name="EX_PowerVS_MR_Megaport" sheetId="17" r:id="rId17"/>
-    <sheet name="EX_VPC_SingleZone" sheetId="18" r:id="rId18"/>
-    <sheet name="EX_VPC_MZ_CIS" sheetId="19" r:id="rId19"/>
-    <sheet name="EX_VPC_MZ_LB" sheetId="20" r:id="rId20"/>
-    <sheet name="EX_Satellite_ROKS" sheetId="21" r:id="rId21"/>
-    <sheet name="EX_Satellite_ROKS_ICD" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="154">
   <si>
     <t>PCS Field Guide &amp; Templates — How to use this workbook</t>
   </si>
@@ -529,368 +514,6 @@
   </si>
   <si>
     <t>Single‑Site VMware Dedicated. Start from the 2‑region blueprint in the tool, remove Region B &amp; its Direct Link (leave CIS only if DDoS is needed).</t>
-  </si>
-  <si>
-    <t>Step‑by‑step (enter these in the online tool):</t>
-  </si>
-  <si>
-    <t>Ready‑to‑Paste IT Requirements (copy into the tool):</t>
-  </si>
-  <si>
-    <t>EX_VMware_TwoRegion</t>
-  </si>
-  <si>
-    <t>Two‑Region VMware Dedicated with DR. Active/passive clusters in us‑south (Prod) and eu‑de (DR).</t>
-  </si>
-  <si>
-    <t>• Create Project → Offering: VMware
-• Pattern: Two‑Region Dedicated
-• Regions: us-south, eu-de
-• Cluster (each): 8 hosts, 28 cores/host, 512 GiB/host, vSAN R1/FTT2
-• Connectivity: Dual Direct Link 10 Gbps, GTGW between regions
-• Generate solution → Export.</t>
-  </si>
-  <si>
-    <t>pattern: TwoRegion
-regions: us-south;eu-de
-hosts_per_cluster: 8
-cores_per_host: 28
-ram_gib_per_host: 512
-vcpu_per_core: 2
-hyperthread_pct: 100
-ram_buffer_pct: 10
-ram_oversubscribe: 1.0
-storage_type: vSAN
-ssd_size_gib: 1800
-ssd_qty_per_host: 8
-raid: R1
-ftt: 2
-dedup: Yes
-dedup_ratio: 1.3
-connectivity: DirectLink
-dl_speed: 2x10Gbps</t>
-  </si>
-  <si>
-    <t>EX_PowerVS_DL_NoGW</t>
-  </si>
-  <si>
-    <t>Direct Link to PowerVS (no customer gateway).</t>
-  </si>
-  <si>
-    <t>• Create Project → Offering: PowerVS
-• Pattern: Direct Link → TGW → PER
-• Region: us-east, DL 10 Gbps
-• VPE to COS via VPC (optional)
-• Generate solution.</t>
-  </si>
-  <si>
-    <t>regions: us-east
-connectivity: DL
-dl_gbps: 10
-classic_gw: No
-gre: No
-gateway_flavor_gbps: 10
-attach_vpc: Yes
-cos_access: VPE</t>
-  </si>
-  <si>
-    <t>EX_PowerVS_DL_CustomerGW</t>
-  </si>
-  <si>
-    <t>Direct Link with customer managed gateway in Classic.</t>
-  </si>
-  <si>
-    <t>• Create Project → Offering: PowerVS
-• Pattern: DL → TGW → Classic GW (GRE) → TGW → PER
-• Region: us-east
-• Classic GW: 10 Gbps appliance; GRE enabled
-• Generate solution.</t>
-  </si>
-  <si>
-    <t>regions: us-east
-connectivity: DL+ClassicGW
-dl_gbps: 10
-classic_gw: Yes
-gre: Yes
-gateway_flavor_gbps: 10
-attach_vpc: No
-cos_access: CSE</t>
-  </si>
-  <si>
-    <t>EX_PowerVS_Site2Site_VPN_VPC</t>
-  </si>
-  <si>
-    <t>Site‑to‑Site VPN terminating on VPC VPN gateway.</t>
-  </si>
-  <si>
-    <t>• Create Project → Offering: PowerVS
-• Pattern: S2S VPN → VPC VPN → TGW → PER
-• Region: us-south
-• VPE to COS via VPC
-• Generate solution.</t>
-  </si>
-  <si>
-    <t>regions: us-south
-connectivity: VPN_S2S_VPC
-classic_gw: No
-gre: No
-attach_vpc: Yes
-cos_access: VPE</t>
-  </si>
-  <si>
-    <t>EX_PowerVS_ClientVPN_VPC</t>
-  </si>
-  <si>
-    <t>Client‑to‑Site VPN via VPC VPN service for remote users.</t>
-  </si>
-  <si>
-    <t>• Create Project → Offering: PowerVS
-• Pattern: Client VPN → VPC VPN → TGW → PER
-• Region: us-south
-• Generate solution.</t>
-  </si>
-  <si>
-    <t>regions: us-south
-connectivity: VPN_Client_VPC
-classic_gw: No
-attach_vpc: Yes
-cos_access: VPE</t>
-  </si>
-  <si>
-    <t>EX_PowerVS_VPN_ClassicGW</t>
-  </si>
-  <si>
-    <t>Site‑to‑Site VPN terminating on a customer managed gateway in Classic.</t>
-  </si>
-  <si>
-    <t>• Create Project → Offering: PowerVS
-• Pattern: S2S VPN → Classic GW (1/10 Gbps) → TGW → PER
-• Region: us-south; GRE between TGWs
-• Generate solution.</t>
-  </si>
-  <si>
-    <t>regions: us-south
-connectivity: VPN_ClassicGW
-classic_gw: Yes
-gateway_flavor_gbps: 10
-gre: Yes
-attach_vpc: Optional
-cos_access: CSE</t>
-  </si>
-  <si>
-    <t>EX_PowerVS_Megaport</t>
-  </si>
-  <si>
-    <t>Direct Megaport connection to PowerVS workspace.</t>
-  </si>
-  <si>
-    <t>• Create Project → Offering: PowerVS
-• Pattern: Megaport → PowerVS
-• Region: eu-de
-• No IBM Cloud connectivity charges (procure via Megaport)
-• Generate solution.</t>
-  </si>
-  <si>
-    <t>regions: eu-de
-connectivity: Megaport
-attach_vpc: No
-cos_access: CSE</t>
-  </si>
-  <si>
-    <t>EX_PowerVS_MR_DL</t>
-  </si>
-  <si>
-    <t>Multi‑Region: DL to PowerVS &amp; VPC with GTGW for inter‑region sync.</t>
-  </si>
-  <si>
-    <t>• Create Project → Offering: PowerVS
-• Pattern: Multi‑Region DL → TGW → PER; GTGW between regions
-• Regions: us-east, eu-de; DL 10 Gbps each
-• Generate solution.</t>
-  </si>
-  <si>
-    <t>regions: us-east;eu-de
-connectivity: MR_DL
-dl_gbps: 2x10
-attach_vpc: Yes
-cos_access: VPE</t>
-  </si>
-  <si>
-    <t>EX_PowerVS_MR_DL_CGW</t>
-  </si>
-  <si>
-    <t>Multi‑Region with customer managed Classic gateway and GTGW.</t>
-  </si>
-  <si>
-    <t>• Create Project → Offering: PowerVS
-• Pattern: MR DL → TGW → Classic GW (GRE) → TGW → PER; GTGW between regions
-• Regions: us-east, eu-de
-• Generate solution.</t>
-  </si>
-  <si>
-    <t>regions: us-east;eu-de
-connectivity: MR_DL+ClassicGW
-classic_gw: Yes
-gre: Yes
-attach_vpc: Optional
-cos_access: CSE</t>
-  </si>
-  <si>
-    <t>EX_PowerVS_MR_Megaport</t>
-  </si>
-  <si>
-    <t>Multi‑Region with Megaport to each workspace and GTGW between regions.</t>
-  </si>
-  <si>
-    <t>• Create Project → Offering: PowerVS
-• Pattern: Megaport → PowerVS (x2) + optional TGW/GTGW
-• Regions: ap-tok, eu-de
-• Generate solution.</t>
-  </si>
-  <si>
-    <t>regions: ap-tok;eu-de
-connectivity: MR_Megaport
-attach_vpc: Optional
-cos_access: CSE</t>
-  </si>
-  <si>
-    <t>EX_VPC_SingleZone</t>
-  </si>
-  <si>
-    <t>Single‑Zone deployment (lowest latency, least resilient).</t>
-  </si>
-  <si>
-    <t>• Create Project → Offering: VPC
-• Pattern: SZ
-• Region: us-south; AZ count: 1
-• Subnets: public/priv/data per design; NAT per AZ Yes
-• No public LB required; scale VSIs in tier
-• Generate solution.</t>
-  </si>
-  <si>
-    <t>region: us-south
-az_count: 1
-pattern: SZ
-internet_facing: No
-cis_enabled: No
-subnet_public: 10.10.1.0/24
-subnet_private: 10.20.1.0/24
-subnet_data: 10.30.1.0/24
-nat_per_az: Yes
-web_vsis_per_az: 2
-app_vsis_per_az: 2
-vsi_profile: bx2-8x32</t>
-  </si>
-  <si>
-    <t>EX_VPC_MZ_CIS</t>
-  </si>
-  <si>
-    <t>Multi‑Zone active‑active using CIS + CLB.</t>
-  </si>
-  <si>
-    <t>• Create Project → Offering: VPC
-• Pattern: MZ + CIS
-• Region: us-south; AZ count: 2
-• Edge: CIS enabled; public CLB Yes; private CLBs web→app Yes
-• VPE to COS &amp; logging
-• Generate solution.</t>
-  </si>
-  <si>
-    <t>region: us-south
-az_count: 2
-pattern: MZ + CIS
-internet_facing: Yes
-cis_enabled: Yes
-cis_plan: Standard
-subnet_public: 10.10.0.0/24,10.10.1.0/24
-subnet_private: 10.20.0.0/24,10.20.1.0/24
-subnet_data: 10.30.0.0/24,10.30.1.0/24
-nat_per_az: Yes
-public_clb: Yes
-private_clb_web_app: Yes
-vpe_cos: Yes
-vpe_logging: Yes
-web_vsis_per_az: 2
-app_vsis_per_az: 2
-vsi_profile: bx2-8x32</t>
-  </si>
-  <si>
-    <t>EX_VPC_MZ_LB</t>
-  </si>
-  <si>
-    <t>Multi‑Zone using only IBM Cloud Load Balancer (for less critical apps).</t>
-  </si>
-  <si>
-    <t>• Create Project → Offering: VPC
-• Pattern: MZ + LB only
-• Region: us-south; AZ count: 2
-• Public CLB Yes; No CIS
-• Generate solution.</t>
-  </si>
-  <si>
-    <t>region: us-south
-az_count: 2
-pattern: MZ + LB
-internet_facing: Yes
-cis_enabled: No
-public_clb: Yes
-private_clb_web_app: Yes
-web_vsis_per_az: 2
-app_vsis_per_az: 2
-vsi_profile: bx2-8x32</t>
-  </si>
-  <si>
-    <t>EX_Satellite_ROKS</t>
-  </si>
-  <si>
-    <t>Satellite location with Managed ROKS clusters (Prod &amp; Test).</t>
-  </si>
-  <si>
-    <t>• Create Project → Offering: Satellite/ROKS
-• Pattern: ROKS
-• Locations: 2; Envs: Prod, Test
-• Worker Pools: 16×64 profile; 10 nodes Prod, 4 nodes Test
-• ODF: 40 TB usable (52 TB sizer input), 3 workers of 16×64
-• Generate solution.</t>
-  </si>
-  <si>
-    <t>pattern: ROKS
-locations: 2
-envs_per_location: Prod,Test
-general_pool_profile: 16 vCPU / 64 GiB
-general_nodes_prod: 10
-general_nodes_test: 4
-odf_usable_tb: 40
-odf_sizer_input_tb: 52
-odf_worker_profile: 16×64
-odf_worker_count: 3</t>
-  </si>
-  <si>
-    <t>EX_Satellite_ROKS_ICD</t>
-  </si>
-  <si>
-    <t>Satellite with Managed ROKS and IBM Cloud Databases (ICD).</t>
-  </si>
-  <si>
-    <t>• Create Project → Offering: Satellite/ROKS
-• Pattern: ROKS + ICD (PostgreSQL, Redis, RabbitMQ)
-• Same worker pools as ROKS example; add ICD instances per env
-• Generate solution.</t>
-  </si>
-  <si>
-    <t>pattern: ROKS+ICD
-locations: 2
-envs_per_location: Prod,Test
-general_pool_profile: 16 vCPU / 64 GiB
-general_nodes_prod: 10
-general_nodes_test: 4
-odf_usable_tb: 40
-odf_sizer_input_tb: 52
-odf_worker_profile: 16×64
-odf_worker_count: 3
-icd_pgsql: 1,1
-icd_redis: 1,1
-icd_rabbitmq: 1,1</t>
   </si>
   <si>
     <r>
@@ -1506,18 +1129,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1529,7 +1147,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1904,466 +1526,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="255" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
@@ -2459,144 +1621,6 @@
       </c>
       <c r="B11" t="s">
         <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2621,14 +1645,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2650,14 +1674,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2828,14 +1852,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
@@ -2864,107 +1888,107 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2993,14 +2017,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3081,14 +2105,14 @@
       <c r="B11" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -3107,93 +2131,93 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3221,14 +2245,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3279,14 +2303,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3315,14 +2339,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -3349,14 +2373,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -3375,14 +2399,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -3409,14 +2433,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -3427,93 +2451,93 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3545,14 +2569,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3579,14 +2603,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3629,14 +2653,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -3671,14 +2695,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -3705,14 +2729,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -3723,107 +2747,107 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3843,9 +2867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3859,17 +2881,17 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>214</v>
+        <v>153</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="8"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3877,78 +2899,78 @@
       <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>199</v>
+      <c r="A7" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>200</v>
+      <c r="A8" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>201</v>
+      <c r="A9" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>202</v>
+      <c r="A10" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>203</v>
+      <c r="A11" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>204</v>
+      <c r="A13" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>205</v>
+      <c r="A14" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>206</v>
+      <c r="A15" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>207</v>
+      <c r="A16" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>208</v>
+      <c r="A17" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>209</v>
+      <c r="A18" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>210</v>
+      <c r="A20" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>212</v>
+      <c r="A23" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3957,96 +2979,4 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="270" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/PCS_Field_Guide_Templates_v3.1.xlsx
+++ b/PCS_Field_Guide_Templates_v3.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IBM Cool Solutioning Tool\UserGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0856849F-AAA3-4F04-85C0-E561E826CB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C82F81-7937-4E7B-88DC-573D85426285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1021,10 +1021,10 @@
     </r>
   </si>
   <si>
-    <t>https://sm911.github.io/IBM-Public-Cloud-Solutioning-Tool/PCS_Field_Guide_Templates_v3.xlsx/EX_VMware_SingleSite.docx</t>
-  </si>
-  <si>
     <t>Full Example via screen Solution Tool Screen Captures.</t>
+  </si>
+  <si>
+    <t>https://sm911.github.io/IBM-Public-Cloud-Solutioning-Tool/PCS_Field_Guide_Templates_v3.1.xlsx/EX_VMware_SingleSite.docx</t>
   </si>
 </sst>
 </file>
@@ -2867,7 +2867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2881,10 +2883,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/PCS_Field_Guide_Templates_v3.1.xlsx
+++ b/PCS_Field_Guide_Templates_v3.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IBM Cool Solutioning Tool\UserGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C82F81-7937-4E7B-88DC-573D85426285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B1F362-C09A-45F2-9D65-41A4BE11E47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="3510" windowWidth="21600" windowHeight="11835" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_ReadMe" sheetId="1" r:id="rId1"/>
@@ -1024,7 +1024,7 @@
     <t>Full Example via screen Solution Tool Screen Captures.</t>
   </si>
   <si>
-    <t>https://sm911.github.io/IBM-Public-Cloud-Solutioning-Tool/PCS_Field_Guide_Templates_v3.1.xlsx/EX_VMware_SingleSite.docx</t>
+    <t>https://sm911.github.io/IBM-Public-Cloud-Solutioning-Tool/EX_VMware_SingleSite.docx</t>
   </si>
 </sst>
 </file>
@@ -2977,7 +2977,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{88A984BA-FFF0-4FE6-B472-CA9D99B44A52}"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="https://sm911.github.io/IBM-Public-Cloud-Solutioning-Tool/EX_VMware_SingleSite.docx" xr:uid="{D5ED3C8C-B52F-41A7-B7F2-11FE302D29B4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
